--- a/DelBay_summary/DelBay20_summary_final.xlsx
+++ b/DelBay_summary/DelBay20_summary_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HG/Documents/HG/Github/HG_Code_Bay/DelBay_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96BFC6A1-C46B-8244-A4F2-55ECFF82B3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602F54D-4AD0-3F4D-98BB-EF3758FF0EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32080" yWindow="2200" windowWidth="46680" windowHeight="25540" activeTab="1" xr2:uid="{ACF35D8D-2529-3C47-9A60-FDBA074736B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{ACF35D8D-2529-3C47-9A60-FDBA074736B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Caption" sheetId="2" r:id="rId1"/>
@@ -4349,13 +4349,13 @@
   <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T106" sqref="T106"/>
+      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -4364,7 +4364,7 @@
     <col min="5" max="5" width="53.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -4385,7 +4385,7 @@
     <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0.35201015412060899</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0.35220218289560701</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0.35009856746913598</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0.34966236466520501</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0.34931969355870202</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0.35313649511060202</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0.35229325965067498</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0.3510923050616</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.34972680069540102</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0.354371922581522</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.35405961477459302</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0.35332317733951002</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0.352753378062023</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0.33070156843273502</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0.35094543495859598</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.35187626118464999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0.35180538622473401</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0.35095126343864103</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>0.351464758226119</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0.351458052042114</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0.35361307667793501</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
         <v>74</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0.35092186692778898</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>77</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0.35314338092453501</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>0.35308197961785098</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0.34857399715005899</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.35506993673673398</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0.349227124268779</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0.35194513246763798</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>0.35017906650409403</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.35056874807730298</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>101</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0.353248690795743</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0.34309418902029198</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>0.34559265439653902</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>110</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0.318428076077241</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>113</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0.35232090659522902</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="28" t="s">
         <v>116</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>0.352238536780282</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>119</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>0.34572455533881702</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>122</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>0.35372535122499599</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>128</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>0.35403195176557301</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>131</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.34990594576933298</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0.34985733615814002</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>137</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0.35147332934848902</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>140</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>0.34867568521457398</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0.35161785403957801</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>146</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0.35275412140863799</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>149</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0.35511628856036798</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>152</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0.350064196815705</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>155</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0.34959252951430703</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="28" t="s">
         <v>158</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0.35071834475816699</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>161</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>0.34935358958020701</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>0.35272153537124801</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>167</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>0.349557970468513</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>170</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0.354180155219185</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>173</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>0.34817710993401901</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>176</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>0.35222108346907999</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>179</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0.35086485706171899</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>182</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0.35303569351248298</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>185</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>0.22772154851490101</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>188</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>0.35196083621254298</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>191</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>0.34964116833361902</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>194</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>0.35347642357477899</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>197</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>0.35048675942830199</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0.353991701517891</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>203</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>0.34918718070634103</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>206</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>0.35091417204897302</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>209</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0.35227538282175502</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>212</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0.351920829852651</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>215</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>0.35198708116741001</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>218</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>0.34844557927591002</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>221</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>0.35125648389561898</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>224</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>0.35370602129218098</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>227</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0.34948134443006601</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>230</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>0.35103290597143699</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>233</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>0.35178132603713003</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>236</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>0.35386767216354498</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>239</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>0.35113104086833802</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>242</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>0.35160841835690099</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>245</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>0.355022171240165</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>248</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>0.35270197031307898</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>251</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>0.35382677495603898</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>254</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0.35170682342889698</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>257</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>0.348312296789627</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>260</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>0.347988619722576</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>0.35319298215135098</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>266</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>0.35361931261123303</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>269</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>0.20538492760142801</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>272</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>0.35380106597014599</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>275</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>0.35101475896742101</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>278</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>0.35188294984378399</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>281</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>0.34862797959464797</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>284</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>0.352827149006887</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>287</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>0.352763238722824</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>290</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>0.34822013349255099</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>293</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>0.35053248327738801</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A96" s="28" t="s">
         <v>296</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>0.35225409594500101</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>299</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>0.32890289744652201</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>302</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>0.35100574242124399</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>305</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>0.35129526935615901</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>308</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>0.35524142344199899</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>311</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>0.34935505874856698</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>555</v>
       </c>
@@ -12728,16 +12728,16 @@
         <v>0.3479845612545126</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F104" s="27"/>
     </row>
-    <row r="105" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F105" s="27"/>
     </row>
-    <row r="106" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F106" s="27"/>
     </row>
-    <row r="107" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F107" s="27"/>
     </row>
   </sheetData>
